--- a/Fig3_RateLevels/Consolidated Rate Info - tall.xlsx
+++ b/Fig3_RateLevels/Consolidated Rate Info - tall.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="75">
   <si>
     <t>Fixed Charges Tier 1 ($/month)</t>
   </si>
@@ -75,6 +75,9 @@
     <t>PG&amp;E-2024</t>
   </si>
   <si>
+    <t>SGD&amp;E</t>
+  </si>
+  <si>
     <t>I have taken the MCE generation rate, added the PG&amp;E E-1 delivery rate and incentive adjustment components except for WFC, PCIA, ECRA, and CTC, from the E1 sheet. I have added WFC, PCIA, ECRA, and CTC from the CCA-CRS.</t>
   </si>
   <si>
@@ -93,6 +96,9 @@
     <t>R-Fixed</t>
   </si>
   <si>
+    <t>DR</t>
+  </si>
+  <si>
     <t>IOU</t>
   </si>
   <si>
@@ -114,6 +120,9 @@
     <t>Baseline credit</t>
   </si>
   <si>
+    <t>Column1</t>
+  </si>
+  <si>
     <t>Fixed Charge ($/month)</t>
   </si>
   <si>
@@ -127,6 +136,12 @@
   </si>
   <si>
     <t>PeakLevel</t>
+  </si>
+  <si>
+    <t>Added: CCA generation, IOU distribution &amp; transmission, baseline incentive, franchise fee surcharge</t>
+  </si>
+  <si>
+    <t>SDG&amp;E</t>
   </si>
   <si>
     <t>all except 4-9 PM M-F</t>
@@ -183,6 +198,9 @@
     <t>TOU-D-4</t>
   </si>
   <si>
+    <t>TOU-DR1</t>
+  </si>
+  <si>
     <t>Low Peak</t>
   </si>
   <si>
@@ -226,6 +244,9 @@
   </si>
   <si>
     <t>RTOD EV Discount</t>
+  </si>
+  <si>
+    <t>EVTOU</t>
   </si>
 </sst>
 </file>
@@ -587,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,16 +672,16 @@
         <v>11.2836</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M2">
         <v>0.33376</v>
@@ -686,16 +707,16 @@
         <v>10.38</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M3">
         <v>0.3289</v>
@@ -721,13 +742,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M4">
         <v>0.18957</v>
@@ -753,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M5">
         <v>0.1907</v>
@@ -785,16 +806,16 @@
         <v>11.2836</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6">
         <v>0.3296800000000001</v>
@@ -820,16 +841,16 @@
         <v>10.38</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M7">
         <v>0.29901</v>
@@ -858,13 +879,13 @@
         <v>45352</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M8">
         <v>0.42101</v>
@@ -884,25 +905,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F9">
-        <v>11.2836</v>
+        <v>10.5</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>0.41697</v>
+        <v>0.45245</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -910,19 +928,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9299999999999999</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.9299999999999999</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.9299999999999999</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10">
-        <v>10.38</v>
+        <v>11.2836</v>
       </c>
       <c r="H10" t="s">
         <v>22</v>
@@ -931,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>0.42282</v>
+        <v>0.41697</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -945,31 +963,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.3</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="C11">
-        <v>7.9</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="D11">
-        <v>22.7</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>10.38</v>
       </c>
       <c r="H11" t="s">
         <v>23</v>
       </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
       <c r="K11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M11">
-        <v>0.24816</v>
+        <v>0.42282</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -977,16 +998,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.5</v>
+        <v>2.3</v>
       </c>
       <c r="C12">
-        <v>23.5</v>
+        <v>7.9</v>
       </c>
       <c r="D12">
-        <v>23.5</v>
+        <v>22.7</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -995,13 +1016,13 @@
         <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>0.1907</v>
+        <v>0.24816</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1009,34 +1030,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13">
-        <v>11.2836</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M13">
-        <v>0.4143400000000001</v>
+        <v>0.1907</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1044,19 +1062,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9299999999999999</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0.9299999999999999</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0.9299999999999999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14">
-        <v>10.38</v>
+        <v>11.2836</v>
       </c>
       <c r="G14" t="s">
         <v>20</v>
@@ -1065,13 +1083,13 @@
         <v>22</v>
       </c>
       <c r="K14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M14">
-        <v>0.3929299999999999</v>
+        <v>0.4143400000000001</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1079,34 +1097,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15">
-        <v>11.7501</v>
-      </c>
-      <c r="G15" s="2">
-        <v>45352</v>
+        <v>10.38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M15">
-        <v>0.52708</v>
+        <v>0.3929299999999999</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1123,25 +1141,25 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F16">
-        <v>11.2836</v>
+        <v>11.7501</v>
+      </c>
+      <c r="G16" s="2">
+        <v>45352</v>
       </c>
       <c r="H16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>0.41697</v>
+        <v>0.52708</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1149,34 +1167,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9299999999999999</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.9299999999999999</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.9299999999999999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F17">
-        <v>10.38</v>
+        <v>10.5</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="K17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M17">
-        <v>0.42282</v>
+        <v>0.56969</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1184,31 +1199,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>7.9</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>22.7</v>
+        <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>11.2836</v>
       </c>
       <c r="H18" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>0.33517</v>
+        <v>0.41697</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1216,31 +1234,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.5</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="C19">
-        <v>23.5</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="D19">
-        <v>23.5</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>10.38</v>
       </c>
       <c r="H19" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>0.1907</v>
+        <v>0.42282</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1248,34 +1269,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>22.7</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F20">
-        <v>11.2836</v>
-      </c>
-      <c r="G20" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>0.4143400000000001</v>
+        <v>0.33517</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1283,34 +1301,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9299999999999999</v>
+        <v>23.5</v>
       </c>
       <c r="C21">
-        <v>0.9299999999999999</v>
+        <v>23.5</v>
       </c>
       <c r="D21">
-        <v>0.9299999999999999</v>
+        <v>23.5</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F21">
-        <v>10.38</v>
-      </c>
-      <c r="G21" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>0.3929299999999999</v>
+        <v>0.1907</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1327,25 +1342,127 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22">
+        <v>11.2836</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22">
+        <v>0.4143400000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="C23">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="D23">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23">
+        <v>10.38</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23">
+        <v>0.3929299999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
         <v>18</v>
       </c>
-      <c r="F22">
+      <c r="F24">
         <v>11.7501</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G24" s="2">
         <v>45352</v>
       </c>
-      <c r="H22" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" t="s">
-        <v>25</v>
-      </c>
-      <c r="L22" t="s">
-        <v>30</v>
-      </c>
-      <c r="M22">
+      <c r="H24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24">
         <v>0.52708</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25">
+        <v>10.5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25">
+        <v>0.56969</v>
       </c>
     </row>
   </sheetData>
@@ -1355,7 +1472,853 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-0.08321000000000001</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2">
+        <v>11.2836</v>
+      </c>
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2">
+        <v>0.42594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>-0.09390999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3">
+        <v>10.38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3">
+        <v>0.37121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4">
+        <v>0.19089</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>23.5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5">
+        <v>0.135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>-0.08321000000000001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <v>11.2836</v>
+      </c>
+      <c r="J6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6">
+        <v>0.4265300000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>-0.09390999999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7">
+        <v>10.38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7">
+        <v>0.3501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>-0.10607</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8">
+        <v>11.7501</v>
+      </c>
+      <c r="J8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8">
+        <v>0.53605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9">
+        <v>11.4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9">
+        <v>0.35515</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>-0.08321000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10">
+        <v>11.2836</v>
+      </c>
+      <c r="I10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>-0.09390999999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11">
+        <v>10.38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11">
+        <v>0.48138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12">
+        <v>0.21833</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>23.5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13">
+        <v>0.1864</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>-0.08321000000000001</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14">
+        <v>11.2836</v>
+      </c>
+      <c r="J14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>-0.09390999999999999</v>
+      </c>
+      <c r="D15">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15">
+        <v>10.38</v>
+      </c>
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15">
+        <v>0.42829</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>-0.10607</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16">
+        <v>11.7501</v>
+      </c>
+      <c r="J16" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17">
+        <v>11.4</v>
+      </c>
+      <c r="J17" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17">
+        <v>0.51979</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>-0.08321000000000001</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18">
+        <v>11.2836</v>
+      </c>
+      <c r="I18" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" t="s">
+        <v>61</v>
+      </c>
+      <c r="M18">
+        <v>0.5093800000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>-0.09390999999999999</v>
+      </c>
+      <c r="D19">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19">
+        <v>10.38</v>
+      </c>
+      <c r="I19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" t="s">
+        <v>61</v>
+      </c>
+      <c r="M19">
+        <v>0.5932500000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" t="s">
+        <v>61</v>
+      </c>
+      <c r="M20">
+        <v>0.27673</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>23.5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21">
+        <v>0.3279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>-0.08321000000000001</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22">
+        <v>11.2836</v>
+      </c>
+      <c r="J22" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" t="s">
+        <v>61</v>
+      </c>
+      <c r="M22">
+        <v>0.4975300000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>-0.09390999999999999</v>
+      </c>
+      <c r="D23">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23">
+        <v>10.38</v>
+      </c>
+      <c r="I23" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23">
+        <v>0.5562500000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>-0.10607</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24">
+        <v>11.7501</v>
+      </c>
+      <c r="J24" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" t="s">
+        <v>61</v>
+      </c>
+      <c r="M24">
+        <v>0.61949</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25">
+        <v>11.4</v>
+      </c>
+      <c r="J25" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" t="s">
+        <v>61</v>
+      </c>
+      <c r="M25">
+        <v>0.83325</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1363,25 +2326,25 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -1390,7 +2353,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>11</v>
@@ -1401,34 +2364,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.08321000000000001</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2">
+        <v>66</v>
+      </c>
+      <c r="F2">
         <v>11.2836</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L2">
-        <v>0.42594</v>
+        <v>0.25106</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1436,107 +2399,110 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.09390999999999999</v>
-      </c>
-      <c r="C3">
-        <v>0.9299999999999999</v>
+        <v>12.81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3">
-        <v>10.38</v>
+        <v>46</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>67</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L3">
-        <v>0.37121</v>
+        <v>0.25613</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="B4">
         <v>12</v>
       </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4">
+        <v>47</v>
+      </c>
+      <c r="F4">
         <v>10</v>
       </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L4">
-        <v>0.19089</v>
+        <v>0.18692</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="B5">
         <v>23.5</v>
       </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5">
+        <v>48</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L5">
-        <v>0.135</v>
+        <v>0.1275</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1544,28 +2510,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.08321000000000001</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6">
         <v>11.2836</v>
       </c>
+      <c r="H6" t="s">
+        <v>69</v>
+      </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L6">
-        <v>0.4254200000000001</v>
+        <v>0.24957</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1573,37 +2545,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.09390999999999999</v>
-      </c>
-      <c r="C7">
-        <v>0.9299999999999999</v>
+        <v>12.81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7">
-        <v>10.38</v>
+        <v>46</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L7">
-        <v>0.3501</v>
+        <v>0.22885</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1611,28 +2580,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.10607</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="G8">
+      <c r="F8">
         <v>11.7501</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L8">
-        <v>0.53605</v>
+        <v>0.34578</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1640,31 +2606,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.08321000000000001</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9">
-        <v>11.2836</v>
-      </c>
-      <c r="H9" t="s">
-        <v>44</v>
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9">
+        <v>11.4</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="J9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>59</v>
+      </c>
+      <c r="L9">
+        <v>0.2848</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1672,107 +2632,110 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.09390999999999999</v>
-      </c>
-      <c r="C10">
-        <v>0.9299999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10">
-        <v>10.38</v>
+        <v>66</v>
+      </c>
+      <c r="F10">
+        <v>11.2836</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L10">
-        <v>0.48138</v>
+        <v>0.45307</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="C11">
-        <v>12</v>
+      <c r="B11">
+        <v>12.81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="J11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L11">
-        <v>0.21833</v>
+        <v>0.3827</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="C12">
-        <v>23.5</v>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>68</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="J12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K12" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L12">
-        <v>0.1864</v>
+        <v>0.21833</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1780,25 +2743,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.08321000000000001</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+        <v>23.5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13">
-        <v>11.2836</v>
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>52</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K13" t="s">
-        <v>54</v>
+        <v>60</v>
+      </c>
+      <c r="L13">
+        <v>0.1967</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1806,37 +2778,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.09390999999999999</v>
-      </c>
-      <c r="C14">
-        <v>0.9299999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14">
-        <v>10.38</v>
+        <v>66</v>
+      </c>
+      <c r="F14">
+        <v>11.2836</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="J14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K14" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L14">
-        <v>0.42829</v>
+        <v>0.4494400000000002</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1844,25 +2813,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.10607</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
+        <v>12.81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15">
-        <v>11.7501</v>
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>50</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="J15" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K15" t="s">
-        <v>54</v>
+        <v>60</v>
+      </c>
+      <c r="L15">
+        <v>0.40385</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1870,34 +2848,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.08321000000000001</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16">
-        <v>11.2836</v>
-      </c>
-      <c r="H16" t="s">
-        <v>44</v>
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16">
+        <v>11.7501</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="J16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L16">
-        <v>0.5093800000000001</v>
+        <v>0.54779</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1905,107 +2874,98 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.09390999999999999</v>
-      </c>
-      <c r="C17">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
         <v>41</v>
       </c>
-      <c r="G17">
-        <v>10.38</v>
-      </c>
-      <c r="H17" t="s">
-        <v>45</v>
+      <c r="F17">
+        <v>11.4</v>
       </c>
       <c r="I17" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="J17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L17">
-        <v>0.5932500000000001</v>
+        <v>0.49727</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="C18">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18">
-        <v>10</v>
+        <v>66</v>
+      </c>
+      <c r="F18">
+        <v>11.2836</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="I18" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="J18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K18" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L18">
-        <v>0.27673</v>
+        <v>0.5635599999999999</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="C19">
-        <v>23.5</v>
+      <c r="B19">
+        <v>12.81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>67</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I19" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K19" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L19">
-        <v>0.3279</v>
+        <v>0.6581800000000001</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2013,28 +2973,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.08321000000000001</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20">
-        <v>11.2836</v>
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" t="s">
+        <v>51</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="J20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K20" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L20">
-        <v>0.4964200000000001</v>
+        <v>0.27673</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2042,37 +3011,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.09390999999999999</v>
-      </c>
-      <c r="C21">
-        <v>0.9299999999999999</v>
+        <v>23.5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21">
-        <v>10.38</v>
+        <v>48</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I21" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="J21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K21" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L21">
-        <v>0.5562500000000001</v>
+        <v>0.3462</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2080,802 +3046,121 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.10607</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
       </c>
       <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22">
+        <v>11.2836</v>
+      </c>
+      <c r="H22" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" t="s">
+        <v>61</v>
+      </c>
+      <c r="L22">
+        <v>0.5582199999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>12.81</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" t="s">
+        <v>61</v>
+      </c>
+      <c r="L23">
+        <v>0.58191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
         <v>18</v>
       </c>
-      <c r="G22">
+      <c r="F24">
         <v>11.7501</v>
       </c>
-      <c r="I22" t="s">
-        <v>48</v>
-      </c>
-      <c r="J22" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L22">
-        <v>0.61949</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2">
-        <v>11.2836</v>
-      </c>
-      <c r="H2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2">
-        <v>0.25106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>12.81</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="I24" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" t="s">
+        <v>61</v>
+      </c>
+      <c r="L24">
+        <v>0.65828</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
         <v>41</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F25">
+        <v>11.4</v>
+      </c>
+      <c r="I25" t="s">
+        <v>74</v>
+      </c>
+      <c r="J25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" t="s">
         <v>61</v>
       </c>
-      <c r="H3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3">
-        <v>0.25613</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4">
-        <v>0.18692</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>23.5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5">
-        <v>0.1275</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6">
-        <v>11.2836</v>
-      </c>
-      <c r="H6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L6">
-        <v>0.128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>12.81</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7">
-        <v>0.22885</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8">
-        <v>11.7501</v>
-      </c>
-      <c r="I8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8">
-        <v>0.34578</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9">
-        <v>11.2836</v>
-      </c>
-      <c r="H9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9">
-        <v>0.45307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>12.81</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10">
-        <v>0.3827</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11" t="s">
-        <v>54</v>
-      </c>
-      <c r="L11">
-        <v>0.21833</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>23.5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" t="s">
-        <v>54</v>
-      </c>
-      <c r="L12">
-        <v>0.1967</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13">
-        <v>11.2836</v>
-      </c>
-      <c r="H13" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" t="s">
-        <v>54</v>
-      </c>
-      <c r="L13">
-        <v>0.167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>12.81</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" t="s">
-        <v>65</v>
-      </c>
-      <c r="J14" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" t="s">
-        <v>54</v>
-      </c>
-      <c r="L14">
-        <v>0.40385</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15">
-        <v>11.7501</v>
-      </c>
-      <c r="I15" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" t="s">
-        <v>54</v>
-      </c>
-      <c r="L15">
-        <v>0.54779</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16">
-        <v>11.2836</v>
-      </c>
-      <c r="H16" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" t="s">
-        <v>64</v>
-      </c>
-      <c r="J16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" t="s">
-        <v>55</v>
-      </c>
-      <c r="L16">
-        <v>0.5635599999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>12.81</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" t="s">
-        <v>65</v>
-      </c>
-      <c r="J17" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" t="s">
-        <v>55</v>
-      </c>
-      <c r="L17">
-        <v>0.6581800000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18">
-        <v>10</v>
-      </c>
-      <c r="G18" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" t="s">
-        <v>66</v>
-      </c>
-      <c r="J18" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" t="s">
-        <v>55</v>
-      </c>
-      <c r="L18">
-        <v>0.27673</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>23.5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
-        <v>67</v>
-      </c>
-      <c r="J19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" t="s">
-        <v>55</v>
-      </c>
-      <c r="L19">
-        <v>0.3462</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20">
-        <v>11.2836</v>
-      </c>
-      <c r="H20" t="s">
-        <v>63</v>
-      </c>
-      <c r="I20" t="s">
-        <v>64</v>
-      </c>
-      <c r="J20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" t="s">
-        <v>55</v>
-      </c>
-      <c r="L20">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>12.81</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" t="s">
-        <v>65</v>
-      </c>
-      <c r="J21" t="s">
-        <v>27</v>
-      </c>
-      <c r="K21" t="s">
-        <v>55</v>
-      </c>
-      <c r="L21">
-        <v>0.58191</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22">
-        <v>11.7501</v>
-      </c>
-      <c r="I22" t="s">
-        <v>64</v>
-      </c>
-      <c r="J22" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" t="s">
-        <v>55</v>
-      </c>
-      <c r="L22">
-        <v>0.65828</v>
+      <c r="L25">
+        <v>0.83227</v>
       </c>
     </row>
   </sheetData>
